--- a/biology/Botanique/Soudage_du_bois/Soudage_du_bois.xlsx
+++ b/biology/Botanique/Soudage_du_bois/Soudage_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soudage du bois est une technique d'assemblage par friction de 2 pièces en bois, sans ajout de colle. 
 </t>
@@ -511,9 +523,11 @@
           <t>Procédé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est soudé par friction : les pièces de bois sont frottées l’une sur l’autre en appliquant une pression. La température élevée obtenue par la friction (&gt;180 °C), combinée à la pression, ramollit la lignine et l’hémicellulose présentes aux niveaux des surfaces en contact. Ce ramollissement permet l’enchevêtrement et donc le soudage de ces polymères[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est soudé par friction : les pièces de bois sont frottées l’une sur l’autre en appliquant une pression. La température élevée obtenue par la friction (&gt;180 °C), combinée à la pression, ramollit la lignine et l’hémicellulose présentes aux niveaux des surfaces en contact. Ce ramollissement permet l’enchevêtrement et donc le soudage de ces polymères. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soudage du bois est un procédé rapide, il se fait en quelques secondes. Il donne des joints de fortes performances mécaniques (d'après qui ? dans quelle mesure ?). Les joints soudés sont sensibles à l'eau liquide et aux conditions humides. Cette sensibilité provient, entre autres, de la dégradation des polymères à l'interface lors du soudage.
 </t>
@@ -573,7 +589,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soudage peut être réalisé sur des pièces planes de bois de même essence ou pas. L'utilisation du bois soudé est limitée à des applications dans des environnements intérieurs en raison de la sensibilité des joints soudés à l'eau liquide et aux conditions humides. Il peut donc servir pour fabriquer des meubles pour l’intérieur.
 </t>
@@ -604,7 +622,9 @@
           <t>Laboratoires étudiant cette méthode</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>EPFL, faculté de l'environnement naturel, architectural et construit (ENAC), laboratoire IBOIS, Suisse
 Haute École Spécialisée Bernoise, Architecture, bois et génie civil, Institut des Matériaux et de la technologie du bois - Écoles techniques ES Bois à Bienne, Suisse
